--- a/data/cumu_grad_rates.xlsx
+++ b/data/cumu_grad_rates.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanolan\OneDrive\IR_Folder\UCSD_Gaps_Quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33347B5C-CF3F-49DC-A029-781BD6E1354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCED8FAA-0651-48D7-9F32-0DDDE332D482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="4423" windowWidth="25509" windowHeight="11108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16354" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FTFY" sheetId="1" r:id="rId1"/>
     <sheet name="Transfer" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FTFY!$A$1:$M$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FTFY!$A$1:$M$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Transfer!$A$1:$J$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="30">
   <si>
     <t>comp</t>
   </si>
@@ -135,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -197,7 +197,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,11 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="F52">
-        <v>0.85699999999999998</v>
+        <v>0.875</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="F53">
-        <v>0.875</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0.84200000000000008</v>
       </c>
       <c r="F54">
-        <v>0.8640000000000001</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2184,10 +2184,10 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0.82200000000000006</v>
       </c>
       <c r="F57">
-        <v>0.85299999999999998</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0.8640000000000001</v>
       </c>
       <c r="F58">
-        <v>0.88500000000000001</v>
+        <v>0.8859999999999999</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0.873</v>
       </c>
       <c r="F59">
-        <v>0.8859999999999999</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2352,13 +2352,13 @@
         <v>2014</v>
       </c>
       <c r="D62">
-        <v>0.53</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="E62">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="F62">
-        <v>0.79</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="G62">
         <v>0.81</v>
@@ -2390,13 +2390,13 @@
         <v>2015</v>
       </c>
       <c r="D63">
-        <v>0.57999999999999996</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="E63">
-        <v>0.79</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="F63">
-        <v>0.82</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2425,13 +2425,13 @@
         <v>2016</v>
       </c>
       <c r="D64">
-        <v>0.59</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="E64">
-        <v>0.79</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0.64</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2480,40 +2480,25 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C66">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D66">
-        <v>0.68</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="E66">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0.9</v>
-      </c>
-      <c r="I66">
-        <v>2904</v>
-      </c>
-      <c r="J66">
-        <v>3682</v>
-      </c>
-      <c r="K66">
-        <v>3794</v>
-      </c>
-      <c r="L66">
-        <v>3854</v>
-      </c>
-      <c r="M66">
-        <v>3872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -2524,10 +2509,10 @@
         <v>16</v>
       </c>
       <c r="C67">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D67">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="E67">
         <v>0.86</v>
@@ -2539,19 +2524,22 @@
         <v>0.9</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I67">
-        <v>2858</v>
+        <v>2904</v>
       </c>
       <c r="J67">
-        <v>3434</v>
+        <v>3682</v>
       </c>
       <c r="K67">
-        <v>3538</v>
+        <v>3794</v>
       </c>
       <c r="L67">
-        <v>3573</v>
+        <v>3854</v>
+      </c>
+      <c r="M67">
+        <v>3872</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -2562,31 +2550,34 @@
         <v>16</v>
       </c>
       <c r="C68">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D68">
-        <v>0.75</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="E68">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F68">
+        <v>0.89</v>
+      </c>
+      <c r="G68">
         <v>0.9</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>3397</v>
+        <v>2858</v>
       </c>
       <c r="J68">
-        <v>3965</v>
+        <v>3434</v>
       </c>
       <c r="K68">
-        <v>4064</v>
+        <v>3538</v>
+      </c>
+      <c r="L68">
+        <v>3573</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -2597,16 +2588,16 @@
         <v>16</v>
       </c>
       <c r="C69">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D69">
-        <v>0.75</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="E69">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2615,10 +2606,13 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>3346</v>
+        <v>3397</v>
       </c>
       <c r="J69">
-        <v>3891</v>
+        <v>3965</v>
+      </c>
+      <c r="K69">
+        <v>4064</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -2629,30 +2623,82 @@
         <v>16</v>
       </c>
       <c r="C70">
+        <v>2016</v>
+      </c>
+      <c r="D70">
+        <v>0.755</v>
+      </c>
+      <c r="E70">
+        <v>0.87</v>
+      </c>
+      <c r="F70">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>3346</v>
+      </c>
+      <c r="J70">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71">
         <v>2017</v>
       </c>
-      <c r="D70">
-        <v>0.78</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
+      <c r="D71">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E71">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>3361</v>
       </c>
     </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>2018</v>
+      </c>
+      <c r="D72">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M70">
-    <sortCondition ref="A2:A70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M71">
+    <sortCondition ref="A2:A71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
